--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value36.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value36.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7813135030118766</v>
+        <v>2.135057687759399</v>
       </c>
       <c r="B1">
-        <v>0.8421198440297947</v>
+        <v>2.677855491638184</v>
       </c>
       <c r="C1">
-        <v>0.9746852001217455</v>
+        <v>3.810995101928711</v>
       </c>
       <c r="D1">
-        <v>1.613747910839254</v>
+        <v>5.543853759765625</v>
       </c>
       <c r="E1">
-        <v>3.502243220338791</v>
+        <v>1.788248538970947</v>
       </c>
     </row>
   </sheetData>
